--- a/APM files/138591414/138591414 IMPORT 5 EPC Users.xlsx
+++ b/APM files/138591414/138591414 IMPORT 5 EPC Users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/138591414/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5938C0DD-5BF1-D344-9368-BB64271E1081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37915251-E2A4-6746-8DF2-7DD9AE5BA5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26740" yWindow="4580" windowWidth="15120" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Success" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="39">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -57,9 +57,6 @@
     <t>SF ID</t>
   </si>
   <si>
-    <t>ETX-Aaliyan</t>
-  </si>
-  <si>
     <t>115150254</t>
   </si>
   <si>
@@ -76,13 +73,91 @@
   </si>
   <si>
     <t>115150262</t>
+  </si>
+  <si>
+    <t>PersiaHashemi</t>
+  </si>
+  <si>
+    <t>ETX-MichaelMonu1</t>
+  </si>
+  <si>
+    <t>etx-kellymaynard</t>
+  </si>
+  <si>
+    <t>etc-MariaBarsala</t>
+  </si>
+  <si>
+    <t>etx-angelaoterobarsala</t>
+  </si>
+  <si>
+    <t>Extranet User</t>
+  </si>
+  <si>
+    <t>etx-MMonuBarsala</t>
+  </si>
+  <si>
+    <t>ext-BarsalaFeedback</t>
+  </si>
+  <si>
+    <t>ETX-CleveBarsala</t>
+  </si>
+  <si>
+    <t>Guest Review Only</t>
+  </si>
+  <si>
+    <t>ext-BarsalaDallas</t>
+  </si>
+  <si>
+    <t>ext-BarsalaDenver</t>
+  </si>
+  <si>
+    <t>ext-BarsalaDetroit</t>
+  </si>
+  <si>
+    <t>ext-BarsalaFortworth</t>
+  </si>
+  <si>
+    <t>ext-BarsalaHouston</t>
+  </si>
+  <si>
+    <t>ext-BarsalaIndianapolis</t>
+  </si>
+  <si>
+    <t>ETX-JackBarsala</t>
+  </si>
+  <si>
+    <t>ext-BarsalaMilwaukee</t>
+  </si>
+  <si>
+    <t>ext-BarsalaOrlando</t>
+  </si>
+  <si>
+    <t>ext-BarsalaPhiladelphia</t>
+  </si>
+  <si>
+    <t>ext-BarsalaPortland</t>
+  </si>
+  <si>
+    <t>ext-BarsalaReno</t>
+  </si>
+  <si>
+    <t>ext-BarsalaRichmond</t>
+  </si>
+  <si>
+    <t>ext-BarsalaSanAntonio</t>
+  </si>
+  <si>
+    <t>ext-BarsalaSandiego</t>
+  </si>
+  <si>
+    <t>ext-BarsalaSanJose</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -101,6 +176,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF292A2E"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -125,20 +214,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -472,11 +562,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -488,11 +578,11 @@
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -505,111 +595,2537 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>138591414</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B26" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>138591414</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B50" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="E50" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>138591414</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B74" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="E74" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>138591414</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="B98" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E98" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>138591414</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="B122" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>138591414</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E122" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E123" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>12</v>
+      </c>
+      <c r="B134" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>12</v>
+      </c>
+      <c r="B135" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>12</v>
+      </c>
+      <c r="B137" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>12</v>
+      </c>
+      <c r="B138" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>12</v>
+      </c>
+      <c r="B139" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>12</v>
+      </c>
+      <c r="B141" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>12</v>
+      </c>
+      <c r="B142" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>12</v>
+      </c>
+      <c r="B144" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="3">
+        <v>138591414</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E145" s="3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A7">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
